--- a/data/income_statement/3digits/total/741_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/741_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>741-Specialised design activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>741-Specialised design activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>118632.49418</v>
@@ -962,31 +868,36 @@
         <v>333093.75854</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>536329.5287199999</v>
+        <v>536411.77198</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>627028.5564300001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>948337.9309599999</v>
+        <v>949617.51939</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1026463.23549</v>
+        <v>1046695.21846</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1307859.34649</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1189660.67583</v>
+        <v>1193919.13869</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1520452.10391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1574274.17569</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2078191.263</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>108994.58694</v>
@@ -1001,31 +912,36 @@
         <v>289036.97295</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>478253.56712</v>
+        <v>478335.81038</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>548432.0956999999</v>
+        <v>548432.0957000001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>853061.7137500001</v>
+        <v>854337.49014</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>910291.8813599999</v>
+        <v>930520.61203</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1150819.52114</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1057050.11664</v>
+        <v>1061058.67926</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1273331.12535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1324225.67056</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1727530.231</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7096.95701</v>
@@ -1043,10 +959,10 @@
         <v>52114.99366000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>71016.50452000002</v>
+        <v>71016.50452</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>86388.592</v>
+        <v>86392.40403999999</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>104968.91771</v>
@@ -1055,16 +971,21 @@
         <v>140453.59033</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>119366.17792</v>
+        <v>119611.75634</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>227833.03732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>230411.65456</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>326251.396</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2540.95023</v>
@@ -1076,34 +997,39 @@
         <v>4891.063200000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6080.460160000001</v>
+        <v>6080.46016</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>5960.96794</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7579.95621</v>
+        <v>7579.956209999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8887.625209999998</v>
+        <v>8887.62521</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11202.43642</v>
+        <v>11205.68872</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>16586.23502</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13244.38127</v>
+        <v>13248.70309</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>19287.94124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19636.85057</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>24409.636</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1182.82045</v>
@@ -1118,31 +1044,36 @@
         <v>4287.10511</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6659.76522</v>
+        <v>6659.765219999999</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>4722.76901</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9496.54153</v>
+        <v>9497.798000000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7908.72237</v>
+        <v>8533.99531</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>8438.642380000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>15372.96776</v>
+        <v>15384.74922</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>18171.60376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18243.04677</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33410.472</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1137.75679</v>
@@ -1163,25 +1094,30 @@
         <v>4210.29774</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7666.969929999999</v>
+        <v>7668.03101</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5240.28892</v>
+        <v>5865.56186</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7214.510139999999</v>
+        <v>7214.51014</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>14806.82412</v>
+        <v>14818.60558</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17446.2823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17517.37505</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>30802.614</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>42.2368</v>
@@ -1202,7 +1138,7 @@
         <v>184.16606</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>694.69116</v>
+        <v>694.8865499999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>208.23061</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>312.97699</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1819.705</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2.82686</v>
@@ -1253,13 +1194,18 @@
         <v>398.61503</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>412.3444700000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>412.69473</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>788.153</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>117449.67373</v>
@@ -1271,37 +1217,42 @@
         <v>275867.48672</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>328806.65343</v>
+        <v>328806.6534300001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>529669.7635</v>
+        <v>529752.00676</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>622305.7874199999</v>
+        <v>622305.7874200001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>938841.3894300001</v>
+        <v>940119.7213899998</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1018554.51312</v>
+        <v>1038161.22315</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1299420.70411</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1174287.70807</v>
+        <v>1178534.38947</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1502280.50015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1556031.12892</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2044780.791</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>86464.19077</v>
+        <v>86464.19077000002</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>152914.91689</v>
@@ -1313,31 +1264,36 @@
         <v>259794.34813</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>397282.85805</v>
+        <v>397291.536</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>469815.3756</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>756144.38887</v>
+        <v>757094.8484100001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>819558.08879</v>
+        <v>837117.56145</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1032664.37752</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>914039.95328</v>
+        <v>917585.0432300001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1160843.11408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1200796.541</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1619350.149</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>30692.27969</v>
@@ -1355,34 +1311,39 @@
         <v>134001.04108</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>98462.27402</v>
+        <v>98462.27402000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>177082.54007</v>
+        <v>177160.21887</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>146319.74168</v>
+        <v>162079.39092</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>222727.9048</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>258778.94168</v>
+        <v>259778.00062</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>221474.48376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>225106.38113</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>299770.18</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>18506.02664</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>49040.06632</v>
+        <v>49040.06632000001</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>84462.34323</v>
@@ -1397,25 +1358,30 @@
         <v>142419.24655</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>266809.68167</v>
+        <v>267546.02679</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>361195.45934</v>
+        <v>361207.5068</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>365068.00291</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>290301.50141</v>
+        <v>292066.51936</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>430446.32294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>457267.3735</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>698692.923</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>30234.4174</v>
@@ -1430,31 +1396,36 @@
         <v>106066.06747</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>156597.34553</v>
+        <v>156606.02348</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>227894.14996</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>310653.10652</v>
+        <v>310789.54214</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>310059.42555</v>
+        <v>311847.20151</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>442029.54525</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>363167.55064</v>
+        <v>363948.5637000001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>503418.80364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>512766.28263</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>615819.762</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7031.46704</v>
@@ -1487,13 +1458,18 @@
         <v>1791.95955</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5503.50374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5656.50374</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5067.284</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>30985.48296</v>
@@ -1508,31 +1484,36 @@
         <v>69012.30529999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>132386.90545</v>
+        <v>132460.47076</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>152490.41182</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>182697.00056</v>
+        <v>183024.87298</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>198996.42433</v>
+        <v>201043.6617</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>266756.32659</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>260247.7547899999</v>
+        <v>260949.34624</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>341437.38607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>355234.58792</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>425430.642</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>26023.85269</v>
@@ -1544,34 +1525,39 @@
         <v>44491.02045</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>55346.18016999999</v>
+        <v>55346.18017</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>92413.51580999998</v>
+        <v>92471.8131</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>116764.89951</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>145992.91684</v>
+        <v>146338.80409</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>166345.49574</v>
+        <v>167823.17813</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>203295.02474</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>222916.08998</v>
+        <v>224317.17205</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>260957.1493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>272273.55597</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>313866.112</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>56.69884</v>
@@ -1592,7 +1578,7 @@
         <v>720.4040200000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1679.52402</v>
+        <v>1679.58578</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2522.42628</v>
@@ -1601,19 +1587,24 @@
         <v>1548.07727</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5290.812059999999</v>
+        <v>5290.81206</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6356.55838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6556.087810000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7074.473</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4725.37985</v>
+        <v>4725.379849999999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>4557.23762</v>
@@ -1622,7 +1613,7 @@
         <v>7988.262519999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8204.839479999999</v>
+        <v>8204.839480000001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>12128.72419</v>
@@ -1631,25 +1622,30 @@
         <v>18402.59737</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>22785.7416</v>
+        <v>22795.60936</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>25497.17748</v>
+        <v>25500.3664</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>34089.57247</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>33504.50166</v>
+        <v>33587.19783</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>44528.78332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>45097.47963</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>47822.67</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>21241.774</v>
@@ -1658,37 +1654,42 @@
         <v>28416.58228</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>36427.27038</v>
+        <v>36427.27037999999</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>47126.66677</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>79734.78455</v>
+        <v>79793.08184</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>97641.89811999998</v>
+        <v>97641.89812</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>121527.65122</v>
+        <v>121863.60895</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>138325.89198</v>
+        <v>139800.38545</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>167657.375</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>184120.77626</v>
+        <v>185439.16216</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>210071.8076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>220619.98853</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>258968.969</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>4961.63027</v>
@@ -1703,31 +1704,36 @@
         <v>13666.12513</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>39973.38964</v>
+        <v>39988.65766</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>35725.51231000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>36704.08372</v>
+        <v>36686.06889</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>32650.92859</v>
+        <v>33220.48357</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>63461.30185</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>37331.66481</v>
+        <v>36632.17419</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>80480.23676999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>82961.03194999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>111564.53</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2961.15421</v>
@@ -1736,7 +1742,7 @@
         <v>3390.05455</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4679.294730000001</v>
+        <v>4679.29473</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>3097.23043</v>
@@ -1748,25 +1754,30 @@
         <v>9028.730350000002</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>16576.46378</v>
+        <v>16590.49759</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19750.4879</v>
+        <v>20155.87951</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>29239.89578</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>54496.15459000001</v>
+        <v>54508.00354</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>38762.34815999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38946.27891</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>111593.386</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2820.76152</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2326.833</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5260.27</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>267.61723</v>
@@ -1865,25 +1886,30 @@
         <v>1852.56823</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2549.17106</v>
+        <v>2562.81274</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>4023.80525</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4870.144800000001</v>
+        <v>4870.1448</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4589.110229999999</v>
+        <v>4592.51488</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6600.93295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6653.51681</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5653.913</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>253.74556</v>
@@ -1916,13 +1942,18 @@
         <v>249.97758</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>15.26997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>25.26997</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>27.713</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.7575</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>10.40088</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1684.707</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13.88316</v>
@@ -1985,7 +2021,7 @@
         <v>473.09193</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>95.91211</v>
+        <v>337.1809</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>163.19402</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>898.0747299999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>549.384</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>916.59357</v>
@@ -2009,7 +2050,7 @@
         <v>2326.33317</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3619.002809999999</v>
+        <v>3619.00281</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>1768.29909</v>
@@ -2018,28 +2059,33 @@
         <v>6195.44767</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5770.366220000001</v>
+        <v>5770.36622</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>12827.06082</v>
+        <v>12827.07764</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>12248.21869</v>
+        <v>12499.30861</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>14807.16446</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>45908.74023</v>
+        <v>45948.56459</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25995.80578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26015.23375</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>72866.54300000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>25.39202</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1360.51387</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>245.76356</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>147.609</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>122.6513</v>
@@ -2135,28 +2191,33 @@
         <v>637.83178</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>974.9184500000001</v>
+        <v>974.91845</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>663.3080500000001</v>
+        <v>663.68336</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2042.55628</v>
+        <v>1955.58918</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2078.88422</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>508.38873</v>
+        <v>477.0086699999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2175.33877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2277.25769</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23076.414</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>4079.97693</v>
@@ -2168,34 +2229,39 @@
         <v>7675.22181</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5416.33596</v>
+        <v>5416.335960000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6709.99057</v>
+        <v>6709.990569999999</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>7516.221610000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11512.60012</v>
+        <v>11518.47898</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10373.15481</v>
+        <v>10706.63693</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>11589.18432</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>32788.45743</v>
+        <v>32834.81465</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19651.27847</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>19690.12502</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>69591.711</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>38.28412</v>
@@ -2216,7 +2282,7 @@
         <v>469.56623</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>812.38846</v>
+        <v>812.3884600000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>109.65726</v>
@@ -2228,13 +2294,18 @@
         <v>171.08818</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>161.10234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>161.63283</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>435.49</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>57.78193</v>
@@ -2261,7 +2332,7 @@
         <v>2233.75357</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>819.8421399999999</v>
+        <v>819.84214</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>2967.09537</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>765.3698899999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3221.166</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>14.85315</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.54013</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>655.103</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3633.79037</v>
@@ -2333,25 +2414,30 @@
         <v>5325.36042</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8237.099330000001</v>
+        <v>8237.175060000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7505.696730000001</v>
+        <v>7839.178849999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>9719.49337</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>28960.39536</v>
+        <v>29006.75258</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17741.13987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>17779.16749</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>42540.409</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.22592</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>119.5797</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>425.58918</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>366.693</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>215.68766</v>
@@ -2447,10 +2543,10 @@
         <v>358.98031</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>595.9321100000001</v>
+        <v>595.93211</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>219.7371</v>
+        <v>225.54023</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>399.66912</v>
@@ -2462,13 +2558,18 @@
         <v>301.74996</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>557.31114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>557.5995799999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22372.85</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2357.65306</v>
@@ -2480,34 +2581,39 @@
         <v>3123.23671</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3282.776470000001</v>
+        <v>3282.77647</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4336.480430000001</v>
+        <v>4338.78685</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7028.31381</v>
+        <v>7028.313810000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7877.01744</v>
+        <v>7877.45244</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8933.993849999999</v>
+        <v>8934.20552</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>12423.10742</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12439.85848</v>
+        <v>12440.65083</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13825.51394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13887.68009</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>18085.789</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2197.75475</v>
@@ -2522,31 +2628,36 @@
         <v>3173.75426</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4323.92595</v>
+        <v>4326.23237</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>6931.435530000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7725.497870000001</v>
+        <v>7725.932869999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8796.573619999999</v>
+        <v>8796.785290000002</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>12106.17837</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>12048.37811</v>
+        <v>12049.17046</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>13387.21271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>13449.37886</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>17665.219</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>159.89831</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>438.30123</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>420.57</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1485.15449</v>
@@ -2600,31 +2716,36 @@
         <v>8064.24313</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>37477.40566</v>
+        <v>37490.36726</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>30209.70724</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>33890.92993999999</v>
+        <v>33880.63506</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>33094.26783</v>
+        <v>33735.52062999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>68688.90588999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>46599.50349</v>
+        <v>45864.71225</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>85765.79252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>88329.50575</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>135480.416</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1423.08071</v>
@@ -2642,28 +2763,33 @@
         <v>3009.79052</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8156.71222</v>
+        <v>8156.712219999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5554.32896</v>
+        <v>5554.80034</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5364.640889999999</v>
+        <v>5492.90045</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>10209.09226</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9969.555760000001</v>
+        <v>9978.311960000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7026.59659</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7072.05663</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>20653.453</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>10.57426</v>
@@ -2675,7 +2801,7 @@
         <v>0.16342</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>26.59877000000001</v>
+        <v>26.59877</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1306.59574</v>
@@ -2687,7 +2813,7 @@
         <v>6.98733</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>19.60436</v>
+        <v>107.59012</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>127.08341</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>170.14243</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3005.079</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1412.50645</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>715.6838799999999</v>
+        <v>715.68388</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>1103.91283</v>
@@ -2720,28 +2851,33 @@
         <v>1703.19478</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8111.244890000001</v>
+        <v>8111.24489</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5547.34163</v>
+        <v>5547.81301</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5345.03653</v>
+        <v>5385.31033</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>10082.00885</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9831.707629999999</v>
+        <v>9840.463830000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6856.45416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6901.914199999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17648.374</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1108.55468</v>
@@ -2762,25 +2898,30 @@
         <v>14091.95377</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5464.22985</v>
+        <v>5467.422560000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>21708.04686</v>
+        <v>21584.5666</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>8828.865539999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>17603.02598</v>
+        <v>17606.0828</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8437.161199999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8595.7119</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>18503.123</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>39.15039</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.4524</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>247.073</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>99.95423000000001</v>
@@ -2843,7 +2989,7 @@
         <v>682.82143</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>519.5118200000001</v>
+        <v>543.6998000000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>406.89171</v>
@@ -2852,13 +2998,18 @@
         <v>592.5397399999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>811.1373799999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>821.2419299999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3928.967</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>969.45006</v>
@@ -2879,64 +3030,74 @@
         <v>14005.12636</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4781.40842</v>
+        <v>4784.60113</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>21143.52038</v>
+        <v>20995.85214</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>8365.75129</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>16819.30685</v>
+        <v>16822.36367</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7625.57142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7774.01757</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>14327.083</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1799.68052</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4311.596149999999</v>
+        <v>4311.59615</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-19178.76969</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8144.899109999999</v>
+        <v>8144.89911</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>37804.56659</v>
+        <v>37817.52819</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>24274.46569</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>33981.02905</v>
+        <v>33968.01284</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>16750.86186</v>
+        <v>17643.85448</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>70069.13261</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>38966.03326999999</v>
+        <v>38236.94141000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>84355.22791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>86805.85048000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>137630.746</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1407.25133</v>
@@ -2951,31 +3112,36 @@
         <v>3197.19208</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7622.62924</v>
+        <v>7623.56902</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>8812.166170000002</v>
+        <v>8812.16617</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>10397.66869</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>11187.15588</v>
+        <v>11254.1579</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>12646.17819</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>14009.10303</v>
+        <v>14015.3759</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>19616.43763</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>20444.36176</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>29507.236</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>392.42919</v>
@@ -2990,28 +3156,31 @@
         <v>4947.70703</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>30181.93735</v>
+        <v>30193.95917</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>15462.29952</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>23583.36036</v>
+        <v>23570.34415</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5563.705980000001</v>
+        <v>6389.696580000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>57422.95442</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>24956.93024</v>
+        <v>24221.56551</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>64738.79028</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>66361.48871999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>108123.51</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>235</v>
@@ -3044,28 +3216,31 @@
         <v>586</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>1067</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1481</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1507</v>
+        <v>1572</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1726</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>